--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2092.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2092.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.255491150322111</v>
+        <v>3.491328954696655</v>
       </c>
       <c r="B1">
-        <v>3.287180479853807</v>
+        <v>2.822103261947632</v>
       </c>
       <c r="C1">
-        <v>2.925015326788659</v>
+        <v>2.481647729873657</v>
       </c>
       <c r="D1">
-        <v>3.217016164639777</v>
+        <v>2.699149131774902</v>
       </c>
       <c r="E1">
-        <v>2.312225705367145</v>
+        <v>2.985780715942383</v>
       </c>
     </row>
   </sheetData>
